--- a/7_eval_compareFastResponse/output/conversation_17488_processed.xlsx
+++ b/7_eval_compareFastResponse/output/conversation_17488_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,42 +453,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
+          <t>Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
+          <t>Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. "}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi. </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -501,254 +505,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cậu nói lại cùng tớ nha.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Lần này chưa đúng, nhưng cậu xứng đáng nhận 100 điểm tinh thần.Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "[NEXT]"}]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cậu nói lại cùng tớ nha.</t>
+          <t xml:space="preserve">Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[{"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}]</t>
+          <t>[{"role": "assistant", "content": "Chào cậu! Bữa nay thầy giáo robot trên sao HỎA dạy tớ cách luyện nói theo nhịp như… hát rap đó! Mỗi cụm từ giống như một đoạn nhạc nhỏ, có nhịp điệu riêng."}, {"role": "assistant", "content": "Cứ theo nhịp là nói được tiếng Anh hay hơn liền! Giờ tụi mình thử cùng luyện nha. Cậu đã sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}, {"role": "assistant", "content": "Great! Let's start! chúng mình sẽ học nói tiếng Anh theo nhịp giống như hát nha! Bài hát này có nhiều cụm từ rất quen mà cũng rất vui. Bài đầu tiên nha. Đầu tiên, cậu hãy nghe thử cả bài nhé, đừng hát theo vội. Mình chỉ cần cảm nhịp thôi."}, {"role": "assistant", "content": "Giờ mình cùng lặp lại đoạn đầu tiên nha, câu chào cực kỳ thân thiện luôn nè."}, {"role": "assistant", "content": "Cậu nói lại cùng tớ nha."}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha!"}, {"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}, {"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}, {"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}, {"role": "assistant", "content": "Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Lần này chưa đúng, nhưng cậu xứng đáng nhận 100 điểm tinh thần.Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}, {"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "[NEXT]"}, {"role": "assistant", "content": "Không sao đâu, mình sẽ giúp cậu nhớ lại nhé! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}, {"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nỗ lực hết mình luôn đó! Tớ rất tự hào về cậu! Tiếp theo là khi mình cảm thấy thật tuyệt, cùng nói theo nhịp nha! "}]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>Nào, nói lại với tớ!</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Nào, nói lại với tớ!"}, {"role": "user", "content": "and wonderful."}]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Awesome! Cậu nói theo nhịp rất tốt! Câu chào quen thuộc quay lại nè! Mình cùng nói lại một lần nữa nhé!"}]</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cậu nhớ nhịp rồi đúng không? Cùng nói nào!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cậu nhớ nhịp rồi đúng không? Cùng nói nào!"}, {"role": "user", "content": "[NEXT]"}]</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Pika tặng huy chương vàng cho tinh thần học tập không bỏ cuộc nè! Đôi khi mình cũng cảm thấy hơi mệt hoặc đói. Vậy thì mình sẽ nói thế này nè"}]</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Giờ thì cậu nhại theo tớ nha!</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": " Giờ thì cậu nhại theo tớ nha!"}, {"role": "user", "content": "[NEXT]"}]</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Lần này chưa đúng, nhưng cậu xứng đáng nhận 100 điểm tinh thần.Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Lần này chưa đúng, nhưng cậu xứng đáng nhận 100 điểm tinh thần.Bây giờ mình cùng nói câu chào cuối nhé! Và cuối cùng, bài hát kết thúc bằng câu chào quen thuộc một lần nữa. Nói lại lần cuối nha!"}]</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cùng nói lại với tớ nào!</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Cùng nói lại với tớ nào!"}, {"role": "user", "content": "[NEXT]"}]</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Không sao đâu, mình sẽ giúp cậu nhớ lại nhé! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Không sao đâu, mình sẽ giúp cậu nhớ lại nhé! Giờ thì mình cùng hát lại từ đầu đến cuối bài hát này nhé, lần này cậu có thể vừa hát vừa nhún nhảy cho vui luôn nha!"}]</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Tiếp theo, hãy tưởng tượng mình sẽ bắt đầu một ngày mới thật vui bằng một bài hát tiếng Anh siêu rộn ràng nha. Cậu sẽ được luyện các câu chào buổi sáng theo nhịp. Vừa học, vừa hát, vừa nhảy cũng được luôn! Cậu sẵn sàng chưa?"}, {"role": "user", "content": "I'm ready."}]</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha! </t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Great! Let's start! Đầu tiên, mình nghe trọn bài hát để quen với nhịp, giai điệu và các cụm từ hay dùng vào buổi sáng nha! "}]</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào! </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": "Mình bắt đầu với câu chào buổi sáng nha, thật tươi lên nào! "}]</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>[{"role": "assistant", "content": ""}]</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Nào, lặp lại cùng tớ nhé!</t>
         </is>
       </c>
     </row>
